--- a/biology/Médecine/Société_française_d'alcoologie/Société_française_d'alcoologie.xlsx
+++ b/biology/Médecine/Société_française_d'alcoologie/Société_française_d'alcoologie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_fran%C3%A7aise_d%27alcoologie</t>
+          <t>Société_française_d'alcoologie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Société française d'alcoologie (SFA) est une association apolitique et non confessionnelle reconnue d'utilité publique, ayant pour but le développement de l'alcoologie au sens large. En effet, l'association englobe tous les stades du cycle de vie des boissons alcoolisées, depuis leur production jusqu'aux conséquences de leur consommation. Le développement des dépendances multiples pousse la SFA à approcher toutes les formes d'addictions.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_fran%C3%A7aise_d%27alcoologie</t>
+          <t>Société_française_d'alcoologie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Mission</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La SFA s'attache à développer une approche pluridisciplinaire de l'alcoologie. Outre l'alcoologie clinique, son champ d'action couvre la prévention, la thérapeutique, l'évaluation et tout ce qui concerne l'alcool éthylique.
 Le développement de la consommation de produits combinés et des codépendances l'ont amenée à élargir son champ à d'autres addictions que celle à l'alcool. La SFA contribue à la formation initiale et continue des professionnels confrontés aux addictions. Elle représente un lieu d'échanges où tant les expériences pratiques que les recherches pointues peuvent être partagées.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_fran%C3%A7aise_d%27alcoologie</t>
+          <t>Société_française_d'alcoologie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1978, fondation par le Docteur Pierre Fouquet et Claude Orsel.
 En 1992, reconnaissance en tant qu'organisme formateur.
@@ -564,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_fran%C3%A7aise_d%27alcoologie</t>
+          <t>Société_française_d'alcoologie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,7 +598,9 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Le conseil d'administration de l'association est composé de 20 membres, il est renouvelé par moitié tous les deux ans. Il est assisté d'un conseil scientifique multidisciplinaire international (20 membres également).
 En janvier 2010 la SFA comptait environ un millier de membres :
@@ -598,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_fran%C3%A7aise_d%27alcoologie</t>
+          <t>Société_française_d'alcoologie</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -616,7 +634,9 @@
           <t>Ressources</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>L'association finance ses activités, notamment au travers :
 des cotisations et souscriptions de ses membres
